--- a/docs/Workflow - Blackpool (1).xlsx
+++ b/docs/Workflow - Blackpool (1).xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Project Status'!$A$3:$V$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -745,6 +745,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,7 +791,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1063,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,47 +1099,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="52" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="53"/>
-      <c r="O2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,7 +1241,7 @@
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1317,7 +1317,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1339,9 +1339,11 @@
         <v>65</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="33"/>
+        <v>76</v>
+      </c>
+      <c r="I7" s="33">
+        <v>300</v>
+      </c>
       <c r="J7" s="40"/>
       <c r="K7" s="18"/>
       <c r="L7" s="41"/>
@@ -1354,7 +1356,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1483,7 +1485,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2134,7 +2136,7 @@
       <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">

--- a/docs/Workflow - Blackpool (1).xlsx
+++ b/docs/Workflow - Blackpool (1).xlsx
@@ -282,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -692,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -791,6 +797,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,7 +1070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1074,7 +1081,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1324,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1485,7 +1492,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="68" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">

--- a/docs/Workflow - Blackpool (1).xlsx
+++ b/docs/Workflow - Blackpool (1).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
   <si>
     <t>Main Code</t>
   </si>
@@ -752,6 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,7 +798,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,7 +1070,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,47 +1106,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="65"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="53" t="s">
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="53" t="s">
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,7 +1248,7 @@
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1267,18 +1267,26 @@
         <v>3</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="I5" s="33">
+        <v>10</v>
+      </c>
       <c r="J5" s="40"/>
       <c r="K5" s="18"/>
       <c r="L5" s="41"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="41"/>
+      <c r="M5" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="41">
+        <v>60</v>
+      </c>
       <c r="P5" s="47"/>
       <c r="V5" t="s">
         <v>59</v>
@@ -1324,7 +1332,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1492,7 +1500,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="53" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1502,20 +1510,26 @@
         <v>26</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F11" s="33">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G11" s="32"/>
       <c r="H11" s="14"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="41"/>
+      <c r="J11" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="41">
+        <v>50</v>
+      </c>
       <c r="M11" s="50"/>
       <c r="N11" s="21"/>
       <c r="O11" s="41"/>
@@ -2143,7 +2157,7 @@
       <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="53" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2152,9 +2166,15 @@
       <c r="C29" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="33"/>
+      <c r="D29" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="33">
+        <v>10</v>
+      </c>
       <c r="G29" s="32" t="s">
         <v>64</v>
       </c>

--- a/docs/Workflow - Blackpool (1).xlsx
+++ b/docs/Workflow - Blackpool (1).xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="79">
   <si>
     <t>Main Code</t>
   </si>
@@ -282,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +303,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,7 +692,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -752,7 +746,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1078,10 +1071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,47 +1100,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="65"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60" t="s">
+      <c r="E2" s="57"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="54" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="54" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="56"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,7 +1242,7 @@
       <c r="P4" s="46"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1332,7 +1326,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1389,9 +1383,15 @@
       <c r="F8" s="33">
         <v>3</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="33"/>
+      <c r="G8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="33">
+        <v>300</v>
+      </c>
       <c r="J8" s="40"/>
       <c r="K8" s="18"/>
       <c r="L8" s="41"/>
@@ -1500,7 +1500,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2157,7 +2157,7 @@
       <c r="P28" s="47"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="52" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="2" t="s">
